--- a/DDAf_2023_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/DDAf_2023_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F990367-BD64-4377-AF4C-47A209194A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{009BC8DA-88DA-48A6-89F3-79BEFCA09B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{E26B727D-F44F-4546-A796-B8ECE01CE0AD}"/>
+    <workbookView xWindow="31650" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{5395C1B8-8230-414A-A605-9836ED3D2743}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9567B-0098-40BF-A8FC-2F2E16EA4F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB274AD8-530E-4375-AE8E-300A83EE9850}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5863,11 +5863,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1315C624-789C-4286-A0C2-16731D8AECAE}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3141FA76-667F-4CB9-9B96-F6C9206CBAA6}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{0CBAEF84-40CB-4F8A-9A94-480160F7E17F}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{1A56F947-1850-4F1C-B704-2A8087C62B10}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{45F669AF-956F-43DA-BAD1-AD59E2B1CA6C}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{059F5ED2-9208-4816-A9EB-E58671A7ED6D}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9425256E-0A68-4B71-BB74-069C479C531D}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1D0F6ECB-F650-4CBD-B546-1404A6ADD29F}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{A9B827EE-651B-4012-A28B-2CA5E606E213}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{79C513AA-E8EF-4FD1-B6E0-9B94AE33358C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009BC8DA-88DA-48A6-89F3-79BEFCA09B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BB0296-3C81-4E0D-B761-11F1BA665ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{5395C1B8-8230-414A-A605-9836ED3D2743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A0E62D2B-1BC1-4ECB-B456-15A1609A34B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab28'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -272,7 +272,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -350,7 +350,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -404,7 +404,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -545,7 +545,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Base de données CESAP-Banque mondiale sur les coûts du commerce (mise à jour le 17 mai 2022).</t>
+    <t>Source : Base de données CESAP-Banque mondiale sur les coûts du commerce (mise à jour 17/05/2022).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB274AD8-530E-4375-AE8E-300A83EE9850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B8F334-8E12-4049-A211-FBAA3054AF1D}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -2822,43 +2822,43 @@
       <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="17" t="s">
+      <c r="C34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3834,43 +3834,43 @@
       <c r="A57" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>184.358328120675</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>165.35133368230001</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>206.19549951804501</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="20">
         <v>199.99757714491199</v>
       </c>
-      <c r="G57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="28">
+      <c r="G57" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="19">
         <v>324.74849190648303</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="20">
         <v>418.16561793497101</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="20">
         <v>320.44871550930202</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="20">
         <v>302.54869974473399</v>
       </c>
-      <c r="M57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="30" t="s">
+      <c r="M57" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5863,11 +5863,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{059F5ED2-9208-4816-A9EB-E58671A7ED6D}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9425256E-0A68-4B71-BB74-069C479C531D}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1D0F6ECB-F650-4CBD-B546-1404A6ADD29F}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{A9B827EE-651B-4012-A28B-2CA5E606E213}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{79C513AA-E8EF-4FD1-B6E0-9B94AE33358C}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DD6C4131-517E-4E70-9980-20D35FB96059}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{093A3BC5-4541-411C-8FFA-FB85AE953662}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D8B275A3-1165-4595-9231-EC49B41686FC}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{5074DDE6-C3AC-4125-8FB5-D320C9E0F907}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{1987FB52-8C8F-433C-98FC-4121B1FB4742}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BB0296-3C81-4E0D-B761-11F1BA665ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2A5A55-8821-493A-A826-D92F1C6F4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A0E62D2B-1BC1-4ECB-B456-15A1609A34B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7D59BD2-F4E0-4D86-9CC7-E8677B384AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B8F334-8E12-4049-A211-FBAA3054AF1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91919D0F-6756-4C01-8FC2-D90E74575BF2}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5863,11 +5863,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DD6C4131-517E-4E70-9980-20D35FB96059}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{093A3BC5-4541-411C-8FFA-FB85AE953662}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D8B275A3-1165-4595-9231-EC49B41686FC}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{5074DDE6-C3AC-4125-8FB5-D320C9E0F907}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{1987FB52-8C8F-433C-98FC-4121B1FB4742}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1CC135E8-E6F2-4AA6-A19A-74DE0BE51961}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{39851F41-91DE-417F-B79A-68DEC379D1B2}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{46B49213-38F8-4340-92B7-3FD98C6F759B}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{A1B8FAE1-683E-4011-8CDC-D379426E9378}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{F7068A42-7A9D-4FBB-9240-394A7C102241}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2A5A55-8821-493A-A826-D92F1C6F4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F9D163-62A0-4828-9601-884C68E3BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7D59BD2-F4E0-4D86-9CC7-E8677B384AD9}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5D972F24-1928-442C-8BA5-D6B9A7E1BE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91919D0F-6756-4C01-8FC2-D90E74575BF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAC62C3-8943-46C7-B0FB-81FE588A7AA7}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5863,11 +5863,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1CC135E8-E6F2-4AA6-A19A-74DE0BE51961}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{39851F41-91DE-417F-B79A-68DEC379D1B2}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{46B49213-38F8-4340-92B7-3FD98C6F759B}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{A1B8FAE1-683E-4011-8CDC-D379426E9378}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{F7068A42-7A9D-4FBB-9240-394A7C102241}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{518EC813-8B1C-4F43-A613-62355F74EF05}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5282FD4B-AE60-4B4E-B922-C99DE8A056D7}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{2B2F0A20-C159-4469-BCA0-922E74ED8056}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{7D1A4081-1E6A-4D14-B268-7532E27BBE26}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E1AE959F-5D0C-44C6-BEF1-181750C773BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F9D163-62A0-4828-9601-884C68E3BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84DB562-B85F-44A5-9608-18E0CA4E6245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5D972F24-1928-442C-8BA5-D6B9A7E1BE1D}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{9F9B1768-5CD2-4000-A9D9-B71839DFDBF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="176">
   <si>
     <t>Tableau 28 : Coûts du commerce international</t>
   </si>
@@ -551,16 +551,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAC62C3-8943-46C7-B0FB-81FE588A7AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFC0C21-0E09-4D24-9FBF-1B67CFBFA4F7}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5765,7 +5768,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C109" s="56"/>
       <c r="D109" s="56"/>
@@ -5782,7 +5785,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C110" s="56"/>
       <c r="D110" s="56"/>
@@ -5798,7 +5801,9 @@
       <c r="N110" s="56"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="C111" s="56"/>
       <c r="D111" s="56"/>
       <c r="E111" s="56"/>
@@ -5814,7 +5819,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="56"/>
       <c r="D112" s="56"/>
@@ -5831,7 +5836,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C113" s="56"/>
       <c r="D113" s="56"/>
@@ -5863,13 +5868,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{518EC813-8B1C-4F43-A613-62355F74EF05}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5282FD4B-AE60-4B4E-B922-C99DE8A056D7}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{2B2F0A20-C159-4469-BCA0-922E74ED8056}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{7D1A4081-1E6A-4D14-B268-7532E27BBE26}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E1AE959F-5D0C-44C6-BEF1-181750C773BF}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C00FA8DE-B28D-486D-BC03-0A94A125E22A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{AB87354E-4638-4650-86D1-3F4D08D19BFB}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{7D1CBF55-DF58-49BC-8962-3BB298D0F728}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{55F35700-0A80-42C9-B7AF-2EA0085A6743}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{75EC80A7-2B88-4C01-A26D-33D4236793C4}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{803D4FF5-9D12-4802-86F7-DEAE06FFE12E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84DB562-B85F-44A5-9608-18E0CA4E6245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5950B9-33E8-4723-9D99-E5AA72943D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{9F9B1768-5CD2-4000-A9D9-B71839DFDBF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{5E375C7B-ADFA-4C71-BBB7-90A9F6243665}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab28'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1383,20 +1383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFC0C21-0E09-4D24-9FBF-1B67CFBFA4F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEE81DD-5714-4AB3-87CF-D88D37F92E00}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1413,7 +1413,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="95" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>268.52689847984902</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>48</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>314.31396550782398</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>67</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>69</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>71</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>73</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>75</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>79</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>81</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>83</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>36</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>278.89955633655597</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>86</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>88</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>92</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>96</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>36</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>202.50032828328</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>99</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>101</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>105</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>107</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>109</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>113</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>115</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>117</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>119</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>121</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>123</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>125</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>127</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
         <v>129</v>
@@ -4051,7 +4051,7 @@
         <v>315.03725402507098</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32"/>
       <c r="B62" s="33" t="s">
         <v>130</v>
@@ -4093,7 +4093,7 @@
         <v>258.10655767002697</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32"/>
       <c r="B63" s="37" t="s">
         <v>131</v>
@@ -4135,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="42" t="s">
         <v>132</v>
@@ -4177,7 +4177,7 @@
         <v>138.68440947428701</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="33" t="s">
         <v>133</v>
@@ -4219,7 +4219,7 @@
         <v>182.36218342098601</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="46" t="s">
         <v>134</v>
@@ -4261,7 +4261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="50" t="s">
         <v>135</v>
@@ -4303,7 +4303,7 @@
         <v>241.012039839479</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="33" t="s">
         <v>136</v>
@@ -4345,7 +4345,7 @@
         <v>243.236699984647</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="33" t="s">
         <v>137</v>
@@ -4387,7 +4387,7 @@
         <v>288.920959908616</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="33" t="s">
         <v>138</v>
@@ -4429,7 +4429,7 @@
         <v>403.14083606706799</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="33" t="s">
         <v>139</v>
@@ -4471,7 +4471,7 @@
         <v>315.03725402507098</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="33" t="s">
         <v>140</v>
@@ -4513,7 +4513,7 @@
         <v>267.43481438409498</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="33" t="s">
         <v>141</v>
@@ -4555,7 +4555,7 @@
         <v>272.60654783833502</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="33" t="s">
         <v>141</v>
@@ -4597,7 +4597,7 @@
         <v>211.71930806236901</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="46" t="s">
         <v>142</v>
@@ -4639,7 +4639,7 @@
         <v>438.86334080663198</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="50" t="s">
         <v>143</v>
@@ -4681,7 +4681,7 @@
         <v>172.96059628277899</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="33" t="s">
         <v>144</v>
@@ -4723,7 +4723,7 @@
         <v>178.18885772583999</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="33" t="s">
         <v>144</v>
@@ -4765,7 +4765,7 @@
         <v>174.84315990939101</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="46" t="s">
         <v>145</v>
@@ -4807,7 +4807,7 @@
         <v>182.56481656420399</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="50" t="s">
         <v>146</v>
@@ -4849,7 +4849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="33" t="s">
         <v>147</v>
@@ -4891,7 +4891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="33" t="s">
         <v>148</v>
@@ -4933,7 +4933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="46" t="s">
         <v>149</v>
@@ -4975,7 +4975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="50" t="s">
         <v>150</v>
@@ -5017,7 +5017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="33" t="s">
         <v>151</v>
@@ -5059,7 +5059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="33" t="s">
         <v>152</v>
@@ -5101,7 +5101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="33" t="s">
         <v>153</v>
@@ -5143,7 +5143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="33" t="s">
         <v>154</v>
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="33" t="s">
         <v>155</v>
@@ -5227,7 +5227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="46" t="s">
         <v>156</v>
@@ -5269,7 +5269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="50" t="s">
         <v>157</v>
@@ -5311,7 +5311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="33" t="s">
         <v>158</v>
@@ -5353,7 +5353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="33" t="s">
         <v>159</v>
@@ -5395,7 +5395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="33" t="s">
         <v>160</v>
@@ -5437,7 +5437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="33" t="s">
         <v>161</v>
@@ -5479,7 +5479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="46" t="s">
         <v>162</v>
@@ -5521,7 +5521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="50" t="s">
         <v>163</v>
@@ -5563,7 +5563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="46" t="s">
         <v>164</v>
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="35"/>
@@ -5621,7 +5621,7 @@
       <c r="M99" s="35"/>
       <c r="N99" s="35"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -5638,7 +5638,7 @@
       <c r="M100" s="56"/>
       <c r="N100" s="56"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="M101" s="56"/>
       <c r="N101" s="56"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="M102" s="56"/>
       <c r="N102" s="56"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="M103" s="56"/>
       <c r="N103" s="56"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="M104" s="56"/>
       <c r="N104" s="56"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C105" s="56"/>
       <c r="D105" s="56"/>
       <c r="E105" s="56"/>
@@ -5720,7 +5720,7 @@
       <c r="M105" s="56"/>
       <c r="N105" s="56"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C106" s="56"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
@@ -5734,7 +5734,7 @@
       <c r="M106" s="56"/>
       <c r="N106" s="56"/>
     </row>
-    <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="57" t="s">
         <v>170</v>
       </c>
@@ -5751,7 +5751,7 @@
       <c r="M107" s="56"/>
       <c r="N107" s="56"/>
     </row>
-    <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="57"/>
       <c r="C108" s="56"/>
       <c r="D108" s="56"/>
@@ -5766,7 +5766,7 @@
       <c r="M108" s="56"/>
       <c r="N108" s="56"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>173</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="M109" s="56"/>
       <c r="N109" s="56"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>174</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="M110" s="56"/>
       <c r="N110" s="56"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>175</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="M111" s="56"/>
       <c r="N111" s="56"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="M112" s="56"/>
       <c r="N112" s="56"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="M113" s="56"/>
       <c r="N113" s="56"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="56"/>
       <c r="D114" s="56"/>
@@ -5868,12 +5868,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C00FA8DE-B28D-486D-BC03-0A94A125E22A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{AB87354E-4638-4650-86D1-3F4D08D19BFB}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{7D1CBF55-DF58-49BC-8962-3BB298D0F728}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{55F35700-0A80-42C9-B7AF-2EA0085A6743}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{75EC80A7-2B88-4C01-A26D-33D4236793C4}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{803D4FF5-9D12-4802-86F7-DEAE06FFE12E}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2CA2E946-3126-416D-BA52-BA48204C01E3}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D1ADA28F-3CB1-42D9-B4C0-9DA7AECD6BB5}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{267D88BF-BA8B-4D9F-9762-F9C64A3919F7}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{9021C310-6933-4F02-BC9B-24D12D502749}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{867DAA8B-66F1-4B74-ABC4-D31D26565E8F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{C50F6D69-117D-4978-9662-4E69BA9C2710}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
